--- a/data/trans_camb/P19C01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>13.26345590873639</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>28.92970065338319</v>
+        <v>28.92970065338321</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.609939023751804</v>
+        <v>-8.055521647822292</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.970269040118908</v>
+        <v>7.249450478446898</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24.41208976643786</v>
+        <v>24.90141122654808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.178913497952159</v>
+        <v>-4.340566280336334</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.173101541779418</v>
+        <v>3.96945176665803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.87754522169556</v>
+        <v>18.84653376699192</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.747397179217747</v>
+        <v>-3.364095699319043</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.668961307418738</v>
+        <v>8.238328221183265</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>24.10621604356772</v>
+        <v>24.28285446838271</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.000371939579948</v>
+        <v>6.887329555312133</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.43170631427309</v>
+        <v>21.83256704784239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38.04888418304066</v>
+        <v>37.57503365595674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.03383274708485</v>
+        <v>13.59202676643867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.10878198497822</v>
+        <v>20.89951774819037</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>32.93797476708333</v>
+        <v>32.66272134074807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.881793752934132</v>
+        <v>7.453475773697924</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.56132540630952</v>
+        <v>18.80750240323706</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>33.44380047671901</v>
+        <v>33.41328978430976</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3422781955704426</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7465630229532252</v>
+        <v>0.7465630229532254</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1861943460148726</v>
+        <v>-0.1974392873470524</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1770369617573183</v>
+        <v>0.1765203227944183</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5975787198092563</v>
+        <v>0.5992848910208656</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08808825694562787</v>
+        <v>-0.09371223304451298</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07192060583262228</v>
+        <v>0.08391133046178706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4184457939977678</v>
+        <v>0.4041420019093031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09121361943169627</v>
+        <v>-0.08114486307318614</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1894233244868347</v>
+        <v>0.1985009142548649</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5670126230064489</v>
+        <v>0.5679171128543526</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2121930465083224</v>
+        <v>0.1972981780321568</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.69667845309897</v>
+        <v>0.6411596556784265</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.148542957972478</v>
+        <v>1.131369559185484</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3562255174976615</v>
+        <v>0.3700529275550611</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5623817936612979</v>
+        <v>0.5859871860383082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9474628225258204</v>
+        <v>0.9014138598050406</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1983820230763651</v>
+        <v>0.2051284901640916</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5228067927020665</v>
+        <v>0.5123701165343473</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9403228557972109</v>
+        <v>0.9274858451708639</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>15.57325307476697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34.27179844475014</v>
+        <v>34.27179844475013</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7.950559028373577</v>
@@ -869,7 +869,7 @@
         <v>16.32079061456495</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>30.48932881311358</v>
+        <v>30.48932881311359</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.293298686444404</v>
@@ -878,7 +878,7 @@
         <v>15.86293704324828</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>32.08331749571459</v>
+        <v>32.08331749571462</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.988296229512961</v>
+        <v>-1.956270803793439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.746274295745524</v>
+        <v>8.122102607552582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.78235068118745</v>
+        <v>26.88730566399197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2157919255199007</v>
+        <v>-0.2489674155717405</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.645939896205205</v>
+        <v>8.373090805771186</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.91533678181379</v>
+        <v>24.10064178910116</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7626500036248086</v>
+        <v>0.8247578828942715</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.48261470042677</v>
+        <v>9.978121064505844</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.90730004859974</v>
+        <v>27.01992073488496</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.66122481461779</v>
+        <v>13.45204943217562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.38434412029534</v>
+        <v>23.55781800423478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41.22744267490794</v>
+        <v>41.51814232766489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.56325410764624</v>
+        <v>15.825524199226</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>24.4898761266615</v>
+        <v>23.74224319111779</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.06324391920931</v>
+        <v>37.045184294812</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.74592871323936</v>
+        <v>11.87142653114791</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>21.28142280730946</v>
+        <v>21.69146460076384</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>36.7098526904153</v>
+        <v>36.60733032962657</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.5049222098658752</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.111173890498151</v>
+        <v>1.11117389049815</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2098275826529408</v>
@@ -974,7 +974,7 @@
         <v>0.4307309749437226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8046606708704604</v>
+        <v>0.8046606708704607</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1821378899806746</v>
@@ -983,7 +983,7 @@
         <v>0.4590981655100642</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9285413013744995</v>
+        <v>0.9285413013745002</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05969154853026157</v>
+        <v>-0.05311754525079172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2187657184369096</v>
+        <v>0.234392105408873</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7297050408084884</v>
+        <v>0.773473647822547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.005882375521521057</v>
+        <v>-0.006141401615920803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2060504508538115</v>
+        <v>0.1996860789150318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5584012394276686</v>
+        <v>0.5640096943078958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01806612061873934</v>
+        <v>0.02228456981358451</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2777425756062475</v>
+        <v>0.2654139079779782</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7053523539564273</v>
+        <v>0.7088808541040608</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5285439177398463</v>
+        <v>0.4919790246669498</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.916303178456494</v>
+        <v>0.895065939820393</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.602836252340206</v>
+        <v>1.661776855036081</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4557974236095623</v>
+        <v>0.4617842182289469</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7304598089863333</v>
+        <v>0.6971808661840839</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.110648602763724</v>
+        <v>1.126706299061799</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3659419343863307</v>
+        <v>0.376844828282249</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6549960191942723</v>
+        <v>0.6818399604671008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.182924694894007</v>
+        <v>1.17135675387579</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.255331349901073</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>21.0355094992768</v>
+        <v>21.03550949927681</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.846787989343678</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.002832459014375</v>
+        <v>-6.754873646011291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.110587578329301</v>
+        <v>3.969199538165245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21.63232136938096</v>
+        <v>22.00165159592925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.58840633492527</v>
+        <v>-12.69218282043258</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.15455997386208</v>
+        <v>-12.09689078578334</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.40583131820518</v>
+        <v>10.78969888637335</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.725280003075834</v>
+        <v>-5.880551474256265</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.774132623452602</v>
+        <v>2.00570391597383</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>21.33266604022452</v>
+        <v>21.01518182997045</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.706088415404015</v>
+        <v>4.776948084953642</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.66549193769177</v>
+        <v>17.25033001379217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34.59653361102128</v>
+        <v>34.969569375376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.730138769355986</v>
+        <v>6.922394800730672</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.841387209638746</v>
+        <v>10.59035068967826</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.48692959180604</v>
+        <v>30.70244031464438</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.320710359714813</v>
+        <v>4.146980526742688</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.3241392230779</v>
+        <v>13.08534224844207</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>31.8598290861114</v>
+        <v>31.62969045704909</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.03579967466845839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5998929259742624</v>
+        <v>0.5998929259742627</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02905302917221449</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2301529191280514</v>
+        <v>-0.2202693899814742</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1304604408250181</v>
+        <v>0.1384413778443232</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7085987448233328</v>
+        <v>0.7321197138891631</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3066871021125975</v>
+        <v>-0.3106112087216517</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.283263211361311</v>
+        <v>-0.2996950735104542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2705965860809806</v>
+        <v>0.2530274690612941</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1787783036453563</v>
+        <v>-0.1832287381302317</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05598569188262092</v>
+        <v>0.06352691000423641</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.665855544523397</v>
+        <v>0.6436113593726552</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1883849227990018</v>
+        <v>0.201435023779409</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6843351723685546</v>
+        <v>0.7348996854926173</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.464643196098448</v>
+        <v>1.490092296628006</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2791648597200799</v>
+        <v>0.2415860128239061</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3352324013272262</v>
+        <v>0.3839661157069043</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.129741616420431</v>
+        <v>1.07954669546183</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1640024369470524</v>
+        <v>0.1615676701901913</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4999794005526831</v>
+        <v>0.4923806881325051</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.225752506994827</v>
+        <v>1.223245115160425</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.238979407269845</v>
+        <v>-4.342738762339073</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.050386995636604</v>
+        <v>7.850640159488151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23.43211966757528</v>
+        <v>23.66881275821663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.253873352367266</v>
+        <v>-3.433325305011222</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8256759518585517</v>
+        <v>1.370541088912535</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.78810282471128</v>
+        <v>22.78367053724415</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.573511824954462</v>
+        <v>-2.608001268815757</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.56352787616081</v>
+        <v>6.40040945335195</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.34515016733471</v>
+        <v>24.53714076663652</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.806418545637993</v>
+        <v>3.517845800374294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.26209198077876</v>
+        <v>16.73254771203197</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32.32514210476296</v>
+        <v>32.13348015700933</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.386606420375063</v>
+        <v>7.044415756123808</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.41743955216615</v>
+        <v>11.8239427441911</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.4103779065385</v>
+        <v>32.21903304797869</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.939768960532399</v>
+        <v>4.084821851261227</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.30140566552238</v>
+        <v>13.5316410416278</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>31.13718676110383</v>
+        <v>31.09691845148862</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1620033032499189</v>
+        <v>-0.166491155507954</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3100612840790452</v>
+        <v>0.2998128208097235</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8585189728870247</v>
+        <v>0.8927265019964249</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08963161849758293</v>
+        <v>-0.09396443144288542</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02340388612126737</v>
+        <v>0.03813244361759274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5968534614488374</v>
+        <v>0.6225925075038997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0839814810417852</v>
+        <v>-0.08826728343162864</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2165767406679268</v>
+        <v>0.2151357397630806</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7980801373024966</v>
+        <v>0.8191277162506004</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1775269571680432</v>
+        <v>0.1550701091017298</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7760198759434306</v>
+        <v>0.7748260421726491</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.454432889428765</v>
+        <v>1.467670944051801</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2491750137310168</v>
+        <v>0.233437908318095</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3749656002171785</v>
+        <v>0.3850851355533773</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.039007472519564</v>
+        <v>1.067069801055138</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1487897480680269</v>
+        <v>0.1543412557540275</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5019507723012251</v>
+        <v>0.5171026988758408</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.179770664254615</v>
+        <v>1.198122570322364</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.776772008891064</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15.67018934494457</v>
+        <v>15.67018934494458</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.91127612301571</v>
@@ -1520,7 +1520,7 @@
         <v>5.762419778416317</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>19.06721680541149</v>
+        <v>19.06721680541148</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.0969065585106</v>
+        <v>-14.78165879813839</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.828475967655251</v>
+        <v>-6.544323187211584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.175956010194049</v>
+        <v>7.404547000706834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.678492825999353</v>
+        <v>-8.332533252120534</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.751439704684971</v>
+        <v>1.861175207444319</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>15.97080399129351</v>
+        <v>15.26114231112382</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-9.104334509857576</v>
+        <v>-9.08921313270349</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9778173653160555</v>
+        <v>1.467082366049463</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>15.07593202278581</v>
+        <v>14.52510035124085</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03323418620845547</v>
+        <v>-0.3170572419989463</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.082685942692535</v>
+        <v>8.908431269170986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23.27065606442049</v>
+        <v>22.60486136115065</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.096481880736975</v>
+        <v>2.173380069795503</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.65910240153618</v>
+        <v>14.76293384882975</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.74776776635718</v>
+        <v>26.16363560318121</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3569135713294947</v>
+        <v>-0.2676242027067476</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.03854873653444</v>
+        <v>10.47173397723697</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>23.35601844825169</v>
+        <v>23.23650535826109</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.06267891411203905</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5527948702232111</v>
+        <v>0.5527948702232115</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1008433652769752</v>
@@ -1625,7 +1625,7 @@
         <v>0.2008831728330024</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6647004481194668</v>
+        <v>0.6647004481194664</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4228615226565914</v>
+        <v>-0.4322392763271263</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1753507046887177</v>
+        <v>-0.1848102854501978</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2470229804369419</v>
+        <v>0.2163372890102306</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2732894900504708</v>
+        <v>-0.2623250963921234</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08807243380258341</v>
+        <v>0.05545040942268706</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.497530457915232</v>
+        <v>0.4584965454141394</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2909585525880625</v>
+        <v>-0.2873612497831335</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.03098384742087189</v>
+        <v>0.04584957599821608</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.474156698286824</v>
+        <v>0.4595651914871869</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.00780064375034091</v>
+        <v>-0.0004356178135345336</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3935677902391733</v>
+        <v>0.3753438426694534</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.001538645489013</v>
+        <v>0.9287237056619727</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.08221311101567073</v>
+        <v>0.08649720227449557</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5757560276385899</v>
+        <v>0.5790611257363371</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.083431201932313</v>
+        <v>1.034389642527801</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.01340688488294265</v>
+        <v>-0.009434974508443536</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3873787227715129</v>
+        <v>0.4010264039037945</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9014360100845223</v>
+        <v>0.9033895500044463</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>10.41141962262466</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20.80004225984968</v>
+        <v>20.80004225984967</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>6.557558447585837</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.496532898166701</v>
+        <v>-3.000389917258005</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.427339570016075</v>
+        <v>1.404793371764003</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.634407526402312</v>
+        <v>8.621645356077368</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.522619014046977</v>
+        <v>2.456795671328323</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>14.1557218620184</v>
+        <v>14.03172251979245</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>27.65621326342449</v>
+        <v>28.11633331107069</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.895601626578858</v>
+        <v>3.028619619708547</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>13.58346701863351</v>
+        <v>13.41365255551197</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>26.24834696046607</v>
+        <v>25.95527540581426</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.81240328795511</v>
+        <v>15.34704240278231</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>19.49114781958808</v>
+        <v>19.77936931220927</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>33.35567435253003</v>
+        <v>32.90394302241996</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.95859854359095</v>
+        <v>10.35885350614261</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>24.03060078675619</v>
+        <v>23.41694419675641</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>36.51365001037188</v>
+        <v>37.10210371594698</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.28605691060178</v>
+        <v>10.38240706175242</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>21.54243548649713</v>
+        <v>21.57110972811174</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>34.89139632891315</v>
+        <v>34.48845459218418</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.2331153285240066</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.4657202245677733</v>
+        <v>0.4657202245677731</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.255788339762611</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06631608467032339</v>
+        <v>-0.06366994721848195</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02904411398690204</v>
+        <v>0.02792198018450894</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1566876266990258</v>
+        <v>0.1763549614951987</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.09471755993408189</v>
+        <v>0.08894940430481479</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.5164766436470469</v>
+        <v>0.5079253718623546</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.998873031638805</v>
+        <v>1.013843542508884</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0923117122577265</v>
+        <v>0.09681959329775285</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.4404933593555456</v>
+        <v>0.4276395395615175</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.8426622532217735</v>
+        <v>0.8302597942233885</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3784652075786098</v>
+        <v>0.3796492677083069</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5033085736605614</v>
+        <v>0.5112663308362542</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8436073274351341</v>
+        <v>0.8289177771323831</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4669695508335315</v>
+        <v>0.4370364752762508</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.021828070437657</v>
+        <v>1.006479908193942</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.560465260111187</v>
+        <v>1.580701777326835</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3751955729323356</v>
+        <v>0.3814409872410858</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7854024593019379</v>
+        <v>0.787731689683283</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.271187233385099</v>
+        <v>1.276015599891255</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.032988246176719</v>
+        <v>-2.91876646479928</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8.298554359166364</v>
+        <v>8.083954399624824</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>24.33346623315868</v>
+        <v>24.1078771163453</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.6346651334265173</v>
+        <v>0.5566619714033454</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>9.54888454068206</v>
+        <v>9.475773588160209</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>25.63042401292952</v>
+        <v>25.37873500437388</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4281954752087377</v>
+        <v>-0.3863467342937808</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.855136710815678</v>
+        <v>9.824067856577695</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>25.72322286861417</v>
+        <v>25.4728193803515</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.067969278805401</v>
+        <v>2.345945760497744</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.57436765387412</v>
+        <v>13.57316650792614</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>29.83855690638614</v>
+        <v>29.65486149831666</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.566278399291041</v>
+        <v>5.554555309066109</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.62859913737359</v>
+        <v>14.60393176239548</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>30.00641425513009</v>
+        <v>30.06327322750051</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.938937347393693</v>
+        <v>3.237590406257558</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.39800895963011</v>
+        <v>13.56661384274003</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>29.3216573007599</v>
+        <v>29.15832425437585</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.09737099047546362</v>
+        <v>-0.09338499707763424</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2647721005003498</v>
+        <v>0.2580830739518601</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7734229726381744</v>
+        <v>0.7675872176423706</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.01900273789657665</v>
+        <v>0.01709296483264584</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2912971788237886</v>
+        <v>0.2897515295647302</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7878431674988835</v>
+        <v>0.773447183072262</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01358918609085052</v>
+        <v>-0.01206551933636688</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3108351533732329</v>
+        <v>0.3091690350451897</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8143303430123298</v>
+        <v>0.8028125944000228</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.07130692120954492</v>
+        <v>0.08330615835193579</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4720869635165641</v>
+        <v>0.4797627547530202</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.045636821505721</v>
+        <v>1.052343096136612</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1880985381590617</v>
+        <v>0.1849648718284407</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4882823444311988</v>
+        <v>0.4896064164775145</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.006286247975532</v>
+        <v>1.008987593831921</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.09853944196963499</v>
+        <v>0.1103918724322038</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4492817985447625</v>
+        <v>0.4545663934153494</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9898493551963311</v>
+        <v>0.9874209851144881</v>
       </c>
     </row>
     <row r="46">
